--- a/files/20214/MAT402_KAM2281A.xlsx
+++ b/files/20214/MAT402_KAM2281A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kamansor.github.io\files\20214\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A709CF39-0E89-4825-BDC9-227F29A164BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC90BEDC-6D55-49DA-B1B0-CB60F6201645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{93054D8E-793C-416F-9FD5-F1FFECFD8B5E}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,41 +652,41 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>2021614298</v>
+        <v>2021813344</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I2" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2">
         <v>100</v>
       </c>
       <c r="L2" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2">
         <f>E2*0.1+F2*0.1+G2*0.1+H2*0.02+I2*0.02+J2*0.02+K2*0.02+L2*0.02</f>
-        <v>29</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -694,41 +694,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>2021485222</v>
+        <v>2021614298</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2">
         <v>70</v>
       </c>
-      <c r="G3" s="2">
-        <v>30</v>
-      </c>
       <c r="H3" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L3" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M31" si="0">E3*0.1+F3*0.1+G3*0.1+H3*0.02+I3*0.02+J3*0.02+K3*0.02+L3*0.02</f>
-        <v>15.400000000000002</v>
+        <f>E3*0.1+F3*0.1+G3*0.1+H3*0.02+I3*0.02+J3*0.02+K3*0.02+L3*0.02</f>
+        <v>30.7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -736,41 +736,41 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>2021888176</v>
+        <v>2021485222</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="H4" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K4" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L4" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="0"/>
-        <v>15.000000000000002</v>
+        <f>E4*0.1+F4*0.1+G4*0.1+H4*0.02+I4*0.02+J4*0.02+K4*0.02+L4*0.02</f>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -778,41 +778,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>2021813344</v>
+        <v>2021888176</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2">
         <v>60</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I5" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2">
         <v>100</v>
       </c>
       <c r="L5" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="0"/>
-        <v>21.799999999999997</v>
+        <f>E5*0.1+F5*0.1+G5*0.1+H5*0.02+I5*0.02+J5*0.02+K5*0.02+L5*0.02</f>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -829,16 +829,16 @@
         <v>44</v>
       </c>
       <c r="E6" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2">
         <v>100</v>
       </c>
       <c r="G6" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I6" s="2">
         <v>100</v>
@@ -853,8 +853,8 @@
         <v>100</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="0"/>
-        <v>22.8</v>
+        <f>E6*0.1+F6*0.1+G6*0.1+H6*0.02+I6*0.02+J6*0.02+K6*0.02+L6*0.02</f>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -874,25 +874,29 @@
         <v>60</v>
       </c>
       <c r="F7" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K7" s="2">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2">
+        <v>50</v>
+      </c>
       <c r="M7" s="2">
-        <f t="shared" si="0"/>
-        <v>9.4</v>
+        <f>E7*0.1+F7*0.1+G7*0.1+H7*0.02+I7*0.02+J7*0.02+K7*0.02+L7*0.02</f>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -926,11 +930,15 @@
       <c r="J8" s="2">
         <v>100</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="2">
+        <v>60</v>
+      </c>
+      <c r="L8" s="2">
+        <v>60</v>
+      </c>
       <c r="M8" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>E8*0.1+F8*0.1+G8*0.1+H8*0.02+I8*0.02+J8*0.02+K8*0.02+L8*0.02</f>
+        <v>28.4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -947,7 +955,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2">
         <v>80</v>
@@ -956,23 +964,23 @@
         <v>60</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L9" s="2">
         <v>60</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="0"/>
-        <v>20.399999999999999</v>
+        <f>E9*0.1+F9*0.1+G9*0.1+H9*0.02+I9*0.02+J9*0.02+K9*0.02+L9*0.02</f>
+        <v>24.2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -989,22 +997,22 @@
         <v>43</v>
       </c>
       <c r="E10" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G10" s="2">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="H10" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="J10" s="2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K10" s="2">
         <v>100</v>
@@ -1013,8 +1021,8 @@
         <v>100</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="0"/>
-        <v>16.2</v>
+        <f>E10*0.1+F10*0.1+G10*0.1+H10*0.02+I10*0.02+J10*0.02+K10*0.02+L10*0.02</f>
+        <v>31.1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1022,32 +1030,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>2021856482</v>
+        <v>2021885622</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2">
         <v>80</v>
       </c>
-      <c r="J11" s="2">
-        <v>100</v>
-      </c>
       <c r="K11" s="2">
         <v>100</v>
       </c>
@@ -1055,8 +1063,8 @@
         <v>100</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
+        <f>E11*0.1+F11*0.1+G11*0.1+H11*0.02+I11*0.02+J11*0.02+K11*0.02+L11*0.02</f>
+        <v>26.3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1064,31 +1072,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>2021885622</v>
+        <v>2021454038</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I12" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J12" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K12" s="2">
         <v>100</v>
@@ -1097,8 +1105,8 @@
         <v>100</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="0"/>
-        <v>14.000000000000002</v>
+        <f>E12*0.1+F12*0.1+G12*0.1+H12*0.02+I12*0.02+J12*0.02+K12*0.02+L12*0.02</f>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1106,25 +1114,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>2021454038</v>
+        <v>2021461796</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F13" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2">
         <v>50</v>
       </c>
       <c r="H13" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2">
         <v>100</v>
@@ -1139,8 +1147,8 @@
         <v>100</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="0"/>
-        <v>30.4</v>
+        <f>E13*0.1+F13*0.1+G13*0.1+H13*0.02+I13*0.02+J13*0.02+K13*0.02+L13*0.02</f>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1148,25 +1156,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>2021461796</v>
+        <v>2021855818</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I14" s="2">
         <v>100</v>
@@ -1181,8 +1189,8 @@
         <v>100</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>E14*0.1+F14*0.1+G14*0.1+H14*0.02+I14*0.02+J14*0.02+K14*0.02+L14*0.02</f>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1190,28 +1198,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>2021855818</v>
+        <v>2021495044</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2">
         <v>100</v>
       </c>
       <c r="G15" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H15" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I15" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J15" s="2">
         <v>100</v>
@@ -1223,8 +1231,8 @@
         <v>100</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="0"/>
-        <v>36.4</v>
+        <f>E15*0.1+F15*0.1+G15*0.1+H15*0.02+I15*0.02+J15*0.02+K15*0.02+L15*0.02</f>
+        <v>31.2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1232,28 +1240,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>2021495044</v>
+        <v>2021856482</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G16" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H16" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I16" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J16" s="2">
         <v>100</v>
@@ -1265,8 +1273,8 @@
         <v>100</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>E16*0.1+F16*0.1+G16*0.1+H16*0.02+I16*0.02+J16*0.02+K16*0.02+L16*0.02</f>
+        <v>32.6</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -1283,7 +1291,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F17" s="2">
         <v>70</v>
@@ -1295,10 +1303,10 @@
         <v>60</v>
       </c>
       <c r="I17" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J17" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K17" s="2">
         <v>100</v>
@@ -1307,8 +1315,8 @@
         <v>100</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="0"/>
-        <v>26.999999999999996</v>
+        <f>E17*0.1+F17*0.1+G17*0.1+H17*0.02+I17*0.02+J17*0.02+K17*0.02+L17*0.02</f>
+        <v>30.7</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -1349,7 +1357,7 @@
         <v>100</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="0"/>
+        <f>E18*0.1+F18*0.1+G18*0.1+H18*0.02+I18*0.02+J18*0.02+K18*0.02+L18*0.02</f>
         <v>39.200000000000003</v>
       </c>
     </row>
@@ -1367,19 +1375,19 @@
         <v>43</v>
       </c>
       <c r="E19" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2">
         <v>80</v>
       </c>
       <c r="G19" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H19" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I19" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J19" s="2">
         <v>100</v>
@@ -1391,8 +1399,8 @@
         <v>100</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="0"/>
-        <v>30.2</v>
+        <f>E19*0.1+F19*0.1+G19*0.1+H19*0.02+I19*0.02+J19*0.02+K19*0.02+L19*0.02</f>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -1415,16 +1423,16 @@
         <v>70</v>
       </c>
       <c r="G20" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I20" s="2">
         <v>100</v>
       </c>
       <c r="J20" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K20" s="2">
         <v>100</v>
@@ -1433,8 +1441,8 @@
         <v>60</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="0"/>
-        <v>23.599999999999998</v>
+        <f>E20*0.1+F20*0.1+G20*0.1+H20*0.02+I20*0.02+J20*0.02+K20*0.02+L20*0.02</f>
+        <v>26.2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1457,7 +1465,7 @@
         <v>100</v>
       </c>
       <c r="G21" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H21" s="2">
         <v>100</v>
@@ -1468,11 +1476,15 @@
       <c r="J21" s="2">
         <v>100</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="K21" s="2">
+        <v>100</v>
+      </c>
+      <c r="L21" s="2">
+        <v>60</v>
+      </c>
       <c r="M21" s="2">
-        <f t="shared" si="0"/>
-        <v>29.2</v>
+        <f>E21*0.1+F21*0.1+G21*0.1+H21*0.02+I21*0.02+J21*0.02+K21*0.02+L21*0.02</f>
+        <v>33.400000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1498,10 +1510,10 @@
         <v>70</v>
       </c>
       <c r="H22" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I22" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J22" s="2">
         <v>100</v>
@@ -1513,8 +1525,8 @@
         <v>100</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="0"/>
-        <v>27.2</v>
+        <f>E22*0.1+F22*0.1+G22*0.1+H22*0.02+I22*0.02+J22*0.02+K22*0.02+L22*0.02</f>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -1537,16 +1549,16 @@
         <v>90</v>
       </c>
       <c r="G23" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H23" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I23" s="2">
         <v>60</v>
       </c>
       <c r="J23" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K23" s="2">
         <v>100</v>
@@ -1555,8 +1567,8 @@
         <v>100</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="0"/>
-        <v>24.8</v>
+        <f>E23*0.1+F23*0.1+G23*0.1+H23*0.02+I23*0.02+J23*0.02+K23*0.02+L23*0.02</f>
+        <v>26.2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -1576,19 +1588,19 @@
         <v>100</v>
       </c>
       <c r="F24" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G24" s="2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H24" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I24" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J24" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K24" s="2">
         <v>80</v>
@@ -1597,8 +1609,8 @@
         <v>100</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="0"/>
-        <v>23.2</v>
+        <f>E24*0.1+F24*0.1+G24*0.1+H24*0.02+I24*0.02+J24*0.02+K24*0.02+L24*0.02</f>
+        <v>32.4</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -1615,22 +1627,22 @@
         <v>43</v>
       </c>
       <c r="E25" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2">
         <v>80</v>
       </c>
       <c r="G25" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H25" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I25" s="2">
         <v>60</v>
       </c>
       <c r="J25" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K25" s="2">
         <v>100</v>
@@ -1639,8 +1651,8 @@
         <v>100</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>E25*0.1+F25*0.1+G25*0.1+H25*0.02+I25*0.02+J25*0.02+K25*0.02+L25*0.02</f>
+        <v>27.7</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -1663,26 +1675,26 @@
         <v>70</v>
       </c>
       <c r="G26" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H26" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I26" s="2">
         <v>80</v>
       </c>
       <c r="J26" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K26" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L26" s="2">
         <v>100</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="0"/>
-        <v>26.6</v>
+        <f>E26*0.1+F26*0.1+G26*0.1+H26*0.02+I26*0.02+J26*0.02+K26*0.02+L26*0.02</f>
+        <v>28.6</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -1723,7 +1735,7 @@
         <v>100</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="0"/>
+        <f>E27*0.1+F27*0.1+G27*0.1+H27*0.02+I27*0.02+J27*0.02+K27*0.02+L27*0.02</f>
         <v>37.6</v>
       </c>
     </row>
@@ -1747,16 +1759,16 @@
         <v>80</v>
       </c>
       <c r="G28" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H28" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I28" s="2">
         <v>60</v>
       </c>
       <c r="J28" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K28" s="2">
         <v>100</v>
@@ -1765,8 +1777,8 @@
         <v>100</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="0"/>
-        <v>25.4</v>
+        <f>E28*0.1+F28*0.1+G28*0.1+H28*0.02+I28*0.02+J28*0.02+K28*0.02+L28*0.02</f>
+        <v>30.2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -1783,7 +1795,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F29" s="2">
         <v>100</v>
@@ -1792,13 +1804,13 @@
         <v>50</v>
       </c>
       <c r="H29" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J29" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K29" s="2">
         <v>100</v>
@@ -1807,8 +1819,8 @@
         <v>100</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="0"/>
-        <v>21.6</v>
+        <f>E29*0.1+F29*0.1+G29*0.1+H29*0.02+I29*0.02+J29*0.02+K29*0.02+L29*0.02</f>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -1831,16 +1843,16 @@
         <v>80</v>
       </c>
       <c r="G30" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H30" s="2">
         <v>100</v>
       </c>
       <c r="I30" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J30" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K30" s="2">
         <v>100</v>
@@ -1849,8 +1861,8 @@
         <v>100</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="0"/>
-        <v>28.8</v>
+        <f>E30*0.1+F30*0.1+G30*0.1+H30*0.02+I30*0.02+J30*0.02+K30*0.02+L30*0.02</f>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -1867,19 +1879,19 @@
         <v>43</v>
       </c>
       <c r="E31" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2">
         <v>70</v>
       </c>
       <c r="G31" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H31" s="2">
         <v>100</v>
       </c>
       <c r="I31" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J31" s="2">
         <v>100</v>
@@ -1891,11 +1903,14 @@
         <v>100</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="0"/>
-        <v>21.8</v>
+        <f>E31*0.1+F31*0.1+G31*0.1+H31*0.02+I31*0.02+J31*0.02+K31*0.02+L31*0.02</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:M31">
+    <sortCondition ref="C2:C31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
